--- a/src/test/resources/LMS_ExcelSheet/LMSExcel.xlsx
+++ b/src/test/resources/LMS_ExcelSheet/LMSExcel.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diksh\eclipse-workspace\Diksha_LMS\src\test\resources\LMS_ExcelSheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kodai\git\LMS_BDDTDD\src\test\resources\LMS_ExcelSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C82B4D2-6843-44C8-8CF7-825B4ADA9B59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AB777FE-6391-4BF3-BB8C-B1A9C4816DF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{CA219B47-3141-4478-AA74-403E685123BD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{CA219B47-3141-4478-AA74-403E685123BD}"/>
   </bookViews>
   <sheets>
     <sheet name="DataDriven" sheetId="1" r:id="rId1"/>
+    <sheet name="AddProgram" sheetId="2" r:id="rId2"/>
+    <sheet name="EditProgram" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
   <si>
     <t xml:space="preserve">Description </t>
   </si>
@@ -60,15 +62,50 @@
   </si>
   <si>
     <t>Test5</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Mar23-SeleniumExplorer-SDET110</t>
+  </si>
+  <si>
+    <t>Mar23-SeleniumExplorer-Desc</t>
+  </si>
+  <si>
+    <t>#*%*(&amp;*(^*&amp;^</t>
+  </si>
+  <si>
+    <t>#&amp;*#&amp;%*%*%&amp;</t>
+  </si>
+  <si>
+    <t>Mar23-BDDExplorer-SDET110</t>
+  </si>
+  <si>
+    <t>Mar23-BDDExplorer-Desc</t>
+  </si>
+  <si>
+    <t>*#&amp;$*(#$&amp;(</t>
+  </si>
+  <si>
+    <t>#$&amp;*#%^*#((&amp;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -95,8 +132,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -413,19 +451,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3385940-A994-403E-99C8-EC608FD8EF42}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.36328125" customWidth="1"/>
-    <col min="2" max="2" width="17.81640625" customWidth="1"/>
-    <col min="3" max="3" width="13.08984375" customWidth="1"/>
-    <col min="4" max="4" width="12.54296875" customWidth="1"/>
+    <col min="1" max="1" width="16.42578125" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -439,12 +477,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -456,6 +494,104 @@
       </c>
       <c r="D3">
         <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93CA35BC-CB30-4AB8-8EDC-04CFE79D852E}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A04AB808-DA54-43CE-B272-AB9C0749E34E}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.85546875" customWidth="1"/>
+    <col min="2" max="2" width="27.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
